--- a/Program/Other/URS會議審查紀錄/MappingBooks/MappingBook_L7-介接外部系統.xlsx
+++ b/Program/Other/URS會議審查紀錄/MappingBooks/MappingBook_L7-介接外部系統.xlsx
@@ -1,38 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\MappingBooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiangwei_tool\Config\DatabaseCompare\MappingBooks\11月穩定版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA68F022-2F19-42DC-888F-3707E382DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目錄" sheetId="1" r:id="rId1"/>
     <sheet name="Ias39IntMethod" sheetId="2" r:id="rId2"/>
-    <sheet name="Ias39LoanCommit" sheetId="3" r:id="rId3"/>
-    <sheet name="Ias39LoanCommit(2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Ias39LGD" sheetId="5" r:id="rId3"/>
+    <sheet name="Ias39LoanCommit" sheetId="3" r:id="rId4"/>
+    <sheet name="Ias39LoanCommit(2)" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="271">
   <si>
     <t>空白:待確認
 1:新檔不需轉
@@ -798,11 +789,96 @@
     <t>WHERE "DrawdownFg" = 1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>"LGDP"."LGDUSE"</t>
+  </si>
+  <si>
+    <t>LGDUSE</t>
+  </si>
+  <si>
+    <t>DAT_LN$LGDP</t>
+  </si>
+  <si>
+    <t>Y:啟用 , N:未啟用</t>
+  </si>
+  <si>
+    <t>啟用記號</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>"LGDP"."LGDPCT"</t>
+  </si>
+  <si>
+    <t>LGDPCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">違約損失率％  </t>
+  </si>
+  <si>
+    <t>LGDPercent</t>
+  </si>
+  <si>
+    <t>"LGDP"."LGDDSC"</t>
+  </si>
+  <si>
+    <t>LGDDSC</t>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">類別說明      </t>
+  </si>
+  <si>
+    <t>TypeDesc</t>
+  </si>
+  <si>
+    <t>"LGDP"."LGDTYP"</t>
+  </si>
+  <si>
+    <t>LGDTYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">類別          </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>"LGDP"."LGDADT"</t>
+  </si>
+  <si>
+    <t>LGDADT</t>
+  </si>
+  <si>
+    <t>Decimald</t>
+  </si>
+  <si>
+    <t>生效日期</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>"Date", "Type"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM DAT_LN$LGDP LGDP
+    </t>
+  </si>
+  <si>
+    <t>違約損失率檔</t>
+  </si>
+  <si>
+    <t>Ias39LGD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -841,7 +917,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,12 +947,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -940,8 +1010,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,14 +1292,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="30" customWidth="1" collapsed="1"/>
@@ -1238,7 +1308,7 @@
     <col min="6" max="6" width="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1250,7 +1320,7 @@
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1270,11 +1340,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="5" t="str">
         <f>HYPERLINK("#'Ias39IntMethod'!A1","Ias39IntMethod")</f>
         <v>Ias39IntMethod</v>
       </c>
@@ -1285,11 +1355,11 @@
       <c r="E3" s="8"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="5" t="str">
         <f>HYPERLINK("#'Ias39LoanCommit'!A1","Ias39LoanCommit")</f>
         <v>Ias39LoanCommit</v>
       </c>
@@ -1308,14 +1378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -1331,11 +1401,11 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1351,11 +1421,11 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1366,18 +1436,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1"/>
       <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1424,7 +1494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1467,7 +1537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1510,7 +1580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1553,7 +1623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1596,7 +1666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1641,7 +1711,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1686,7 +1756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1731,7 +1801,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1776,7 +1846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1821,7 +1891,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1852,7 +1922,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1883,7 +1953,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1914,7 +1984,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1957,14 +2027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -1980,16 +2050,16 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="E1" s="5" t="str">
         <f>HYPERLINK("#'目錄'!A1","回首頁")</f>
@@ -2000,54 +2070,52 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1"/>
       <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2075,31 +2143,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>264</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
@@ -2107,197 +2175,203 @@
       <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -2307,923 +2381,108 @@
         <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="1">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="1">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="1">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="1">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="78" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="1">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="1">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="1">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="1">
-        <v>11</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="1">
-        <v>6</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="1">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3237,14 +2496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
@@ -3260,11 +2519,11 @@
     <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
@@ -3280,35 +2539,35 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1"/>
       <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -3355,7 +2614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3394,7 +2653,7 @@
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3415,7 +2674,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
@@ -3434,10 +2693,10 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3458,7 +2717,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>46</v>
@@ -3477,10 +2736,10 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3501,7 +2760,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>101</v>
@@ -3520,10 +2779,10 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3544,7 +2803,7 @@
         <v>107</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>108</v>
@@ -3563,10 +2822,10 @@
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3587,7 +2846,7 @@
         <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>114</v>
@@ -3606,10 +2865,10 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3630,7 +2889,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>119</v>
@@ -3649,10 +2908,10 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3673,7 +2932,7 @@
         <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>124</v>
@@ -3692,10 +2951,10 @@
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3716,7 +2975,7 @@
         <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>130</v>
@@ -3735,10 +2994,10 @@
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3759,7 +3018,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>135</v>
@@ -3778,10 +3037,10 @@
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3802,7 +3061,7 @@
         <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>140</v>
@@ -3821,10 +3080,10 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3845,7 +3104,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>145</v>
@@ -3864,10 +3123,10 @@
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3890,7 +3149,7 @@
         <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
@@ -3909,10 +3168,10 @@
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3935,7 +3194,7 @@
         <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>156</v>
@@ -3954,10 +3213,10 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="124.8" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3980,7 +3239,7 @@
         <v>161</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>162</v>
@@ -3999,10 +3258,10 @@
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4023,7 +3282,7 @@
         <v>167</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>168</v>
@@ -4042,10 +3301,10 @@
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4066,7 +3325,7 @@
         <v>174</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>175</v>
@@ -4085,10 +3344,10 @@
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4127,7 +3386,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4148,7 +3407,7 @@
         <v>185</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>186</v>
@@ -4167,10 +3426,10 @@
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4193,7 +3452,7 @@
         <v>191</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>192</v>
@@ -4212,10 +3471,10 @@
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4238,7 +3497,7 @@
         <v>198</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>199</v>
@@ -4257,10 +3516,10 @@
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -4281,25 +3540,29 @@
         <v>28</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -4320,25 +3583,29 @@
         <v>28</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -4373,11 +3640,11 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -4406,7 +3673,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -4437,7 +3704,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -4466,7 +3733,1279 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="38" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="6" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="str">
+        <f>HYPERLINK("#'目錄'!A1","回首頁")</f>
+        <v>回首頁</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="1"/>
+      <c r="N3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="1">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="1">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="1">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="1">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
